--- a/09-16-eBiz.xlsx
+++ b/09-16-eBiz.xlsx
@@ -491,8 +491,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1105,7 +1106,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1161,7 +1162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1175,7 +1175,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1189,6 +1188,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="499">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2026,7 +2028,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -2114,7 +2116,7 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="15">
+      <c r="A2" s="41">
         <v>42626</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2180,70 +2182,70 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="28" customFormat="1">
-      <c r="A3" s="27">
+    <row r="3" spans="1:20" s="27" customFormat="1">
+      <c r="A3" s="42">
         <v>42626</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>2</v>
       </c>
-      <c r="D3" s="28">
-        <v>0</v>
-      </c>
-      <c r="E3" s="28">
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
         <f t="shared" ref="E3:E8" si="0">D3*C3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="29">
-        <v>0</v>
-      </c>
-      <c r="G3" s="28">
-        <v>0</v>
-      </c>
-      <c r="H3" s="28">
+      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
         <f t="shared" ref="H3:H8" si="1">G3*C3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="30">
-        <v>0</v>
-      </c>
-      <c r="J3" s="28">
-        <v>0</v>
-      </c>
-      <c r="K3" s="28">
+      <c r="I3" s="29">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
         <f t="shared" ref="K3:K8" si="2">H3-E3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="30">
         <f>E3*0.02</f>
         <v>0</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="30">
         <f t="shared" ref="M3:M8" si="3">L3+K3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33" t="s">
+      <c r="P3" s="31"/>
+      <c r="Q3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="15">
+      <c r="A4" s="41">
         <v>42629</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2306,129 +2308,129 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="36" customFormat="1">
-      <c r="A5" s="35">
+    <row r="5" spans="1:20" s="34" customFormat="1">
+      <c r="A5" s="43">
         <v>42634</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>1</v>
       </c>
-      <c r="D5" s="36">
-        <v>0</v>
-      </c>
-      <c r="E5" s="36">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37">
-        <v>0</v>
-      </c>
-      <c r="G5" s="36">
-        <v>0</v>
-      </c>
-      <c r="H5" s="36">
-        <v>0</v>
-      </c>
-      <c r="I5" s="38">
-        <v>0</v>
-      </c>
-      <c r="J5" s="36">
-        <v>0</v>
-      </c>
-      <c r="K5" s="36">
+      <c r="D5" s="34">
+        <v>0</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36">
+        <v>0</v>
+      </c>
+      <c r="J5" s="34">
+        <v>0</v>
+      </c>
+      <c r="K5" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="37">
         <f>12%*560</f>
         <v>67.2</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="37">
         <f t="shared" si="3"/>
         <v>67.2</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41" t="s">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="36" customFormat="1">
-      <c r="A6" s="35">
+    <row r="6" spans="1:20" s="34" customFormat="1">
+      <c r="A6" s="43">
         <v>42634</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="34">
         <v>1</v>
       </c>
-      <c r="D6" s="36">
-        <v>0</v>
-      </c>
-      <c r="E6" s="36">
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="E6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="37">
-        <v>0</v>
-      </c>
-      <c r="G6" s="36">
-        <v>0</v>
-      </c>
-      <c r="H6" s="36">
-        <v>0</v>
-      </c>
-      <c r="I6" s="38">
-        <v>0</v>
-      </c>
-      <c r="J6" s="36">
-        <v>0</v>
-      </c>
-      <c r="K6" s="36">
+      <c r="F6" s="35">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36">
+        <v>0</v>
+      </c>
+      <c r="J6" s="34">
+        <v>0</v>
+      </c>
+      <c r="K6" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="37">
         <f>E6*0.12</f>
         <v>0</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41" t="s">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="42" t="s">
+      <c r="R6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="15">
+      <c r="A7" s="41">
         <v>42634</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2495,7 +2497,7 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="15">
+      <c r="A8" s="41">
         <v>42640</v>
       </c>
       <c r="B8" s="10" t="s">
